--- a/data/trans_dic/P21B_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P21B_R2-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.0158737943729361</v>
+        <v>0.01688473069423182</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004178667400229266</v>
+        <v>0.00409995329957342</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005683119390322855</v>
+        <v>0.005792832828268881</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.007905959025035944</v>
+        <v>0.008233577064255494</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.00255708958261161</v>
+        <v>0.002553149765554838</v>
       </c>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01108478114556429</v>
+        <v>0.01151344303608659</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01467851932707273</v>
+        <v>0.01503598629970952</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.006554822179389153</v>
+        <v>0.006062225080773387</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.002704458680608927</v>
+        <v>0.00272931161181123</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01172524174321749</v>
+        <v>0.01245674403387247</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.07887989526693616</v>
+        <v>0.07772147821796595</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04085715138434245</v>
+        <v>0.04008645699736383</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0376629999062453</v>
+        <v>0.03489711797122152</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05509332619237973</v>
+        <v>0.05338844760468163</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03872778279327221</v>
+        <v>0.03983365912907275</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03101336898541547</v>
+        <v>0.03261649903526913</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03567428967463569</v>
+        <v>0.03303948761322522</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.04760227810631112</v>
+        <v>0.05017909402457113</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04295556500154284</v>
+        <v>0.04529125571736831</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.02692735093995687</v>
+        <v>0.02579342921007862</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02470241383347187</v>
+        <v>0.02524005521351489</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03674223625299066</v>
+        <v>0.04029880939339347</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.06400016518419238</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06819449042522095</v>
+        <v>0.06819449042522094</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00968951000046811</v>
+        <v>0.01205236836978399</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.008052564677591358</v>
+        <v>0.01003472997220711</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0452886017183512</v>
+        <v>0.04655464533594433</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03636548470987442</v>
+        <v>0.03647221233024783</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01355232666678</v>
+        <v>0.01439604708737694</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01502969328332255</v>
+        <v>0.01499043416093025</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.03618979667190213</v>
+        <v>0.0374502902386496</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05694809762767254</v>
+        <v>0.0576415762788068</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01599560109983887</v>
+        <v>0.01590015160435114</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01547252478785935</v>
+        <v>0.01498661340931891</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.04780116656399434</v>
+        <v>0.04694146440043152</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05326106403908867</v>
+        <v>0.05327992589937405</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05021772928911086</v>
+        <v>0.05137641397540479</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04461117895304191</v>
+        <v>0.0458262676804819</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1041555012222344</v>
+        <v>0.1065432761578677</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09335286125454416</v>
+        <v>0.09548242708154298</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05128723772393545</v>
+        <v>0.05058627897090508</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04822809184238667</v>
+        <v>0.04911091009153196</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.08916698524839896</v>
+        <v>0.08690999518913449</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.101278654767168</v>
+        <v>0.1026746052231765</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04227212772760312</v>
+        <v>0.04334727620924653</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03878628897189545</v>
+        <v>0.03811785342505809</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.08799119450561509</v>
+        <v>0.08584665670544332</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08836064718490928</v>
+        <v>0.08977791778076132</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04356432246627619</v>
+        <v>0.04324443846313703</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01435962976225572</v>
+        <v>0.01429770396645088</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06760995335824209</v>
+        <v>0.07691868881051125</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1268286580774283</v>
+        <v>0.1233254871273747</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02414427791580851</v>
+        <v>0.02528303277435473</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06392833397118176</v>
+        <v>0.06307473892011758</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1414909066799717</v>
+        <v>0.1444486951067569</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1070380729215429</v>
+        <v>0.1126976937500256</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0452515973006579</v>
+        <v>0.04127126800388597</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05408576875530692</v>
+        <v>0.05305054223770322</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1357241282822225</v>
+        <v>0.1372240188470311</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1347657058682492</v>
+        <v>0.133598939944864</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1906956269058603</v>
+        <v>0.1914164698614841</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1399835573815469</v>
+        <v>0.1386649999345876</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2447121721060181</v>
+        <v>0.2553354102838329</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2611118354755801</v>
+        <v>0.2632372648223772</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1260387818631736</v>
+        <v>0.1227994124034113</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1986585741155833</v>
+        <v>0.1879757138480687</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2964431080445732</v>
+        <v>0.2907411380270484</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2092580478940496</v>
+        <v>0.2058041840148974</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1292516314632222</v>
+        <v>0.1307568848203955</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1490988260016269</v>
+        <v>0.1433131444738029</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2512204113687966</v>
+        <v>0.2490221137257261</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2178996730696511</v>
+        <v>0.2157731393141758</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.07113394221535516</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07896110062439109</v>
+        <v>0.0789611006243911</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03371581769588987</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02603601084082386</v>
+        <v>0.02590721971762633</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01303849634446106</v>
+        <v>0.01331996170990741</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04566280784250973</v>
+        <v>0.04495399233642115</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05855277799068435</v>
+        <v>0.06002005704903585</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.018119575973326</v>
+        <v>0.01780940469464522</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0213927642067059</v>
+        <v>0.02087194533138757</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05562879894908611</v>
+        <v>0.05353870748130324</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06343727885641909</v>
+        <v>0.06346937658393222</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02475921578349058</v>
+        <v>0.02529432169298651</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02021090356198872</v>
+        <v>0.02052662968121727</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.055039908771233</v>
+        <v>0.05438187111393834</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06593071182148909</v>
+        <v>0.06648320124842465</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.06423492086587394</v>
+        <v>0.06134412784049822</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03824913998434284</v>
+        <v>0.03794083520821825</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09165852217275128</v>
+        <v>0.09130745987735484</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1008086921959413</v>
+        <v>0.106339385745727</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04216812618822973</v>
+        <v>0.04243338188217155</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04532693192658087</v>
+        <v>0.04553120237441962</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09372035541699146</v>
+        <v>0.09111230774013529</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.0984329565794472</v>
+        <v>0.09685385665254038</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04555578710690705</v>
+        <v>0.04650979204071869</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03699199554911769</v>
+        <v>0.03691070507531731</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08483445360014316</v>
+        <v>0.08429957904825902</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.09256054879382553</v>
+        <v>0.09462607494477315</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3140</v>
+        <v>3340</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1044</v>
+        <v>1025</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2700</v>
+        <v>2812</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>2657</v>
+        <v>2759</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>7915</v>
+        <v>8108</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>4324</v>
+        <v>3999</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>975</v>
+        <v>984</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4461</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15601</v>
+        <v>15372</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>10210</v>
+        <v>10018</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5168</v>
+        <v>4788</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>7757</v>
+        <v>7517</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>13224</v>
+        <v>13602</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12709</v>
+        <v>13366</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7961</v>
+        <v>7373</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>11409</v>
+        <v>12026</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>23164</v>
+        <v>24423</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>17764</v>
+        <v>17016</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>8901</v>
+        <v>9095</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>13979</v>
+        <v>15332</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2723</v>
+        <v>3387</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3088</v>
+        <v>3848</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>15244</v>
+        <v>15670</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>15691</v>
+        <v>15737</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5102</v>
+        <v>5419</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>6779</v>
+        <v>6762</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>14026</v>
+        <v>14515</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>28646</v>
+        <v>28995</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>10517</v>
+        <v>10454</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>12913</v>
+        <v>12507</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>34616</v>
+        <v>33994</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>49773</v>
+        <v>49790</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14114</v>
+        <v>14439</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17109</v>
+        <v>17575</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>35059</v>
+        <v>35863</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>40280</v>
+        <v>41199</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>19307</v>
+        <v>19043</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>21754</v>
+        <v>22152</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>34558</v>
+        <v>33684</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>50945</v>
+        <v>51647</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>27794</v>
+        <v>28501</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>32370</v>
+        <v>31812</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>63721</v>
+        <v>62168</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>82573</v>
+        <v>83898</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3468</v>
+        <v>3443</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>4996</v>
+        <v>5684</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20206</v>
+        <v>19648</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2562</v>
+        <v>2682</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7308</v>
+        <v>7210</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>18992</v>
+        <v>19389</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>20348</v>
+        <v>21423</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8403</v>
+        <v>7664</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>9939</v>
+        <v>9749</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>28247</v>
+        <v>28559</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>47089</v>
+        <v>46681</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15181</v>
+        <v>15238</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9724</v>
+        <v>9632</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>18082</v>
+        <v>18867</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>41599</v>
+        <v>41938</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13372</v>
+        <v>13028</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>22708</v>
+        <v>21487</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>39791</v>
+        <v>39026</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>39779</v>
+        <v>39123</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>24002</v>
+        <v>24282</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>27400</v>
+        <v>26337</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>52284</v>
+        <v>51827</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>76137</v>
+        <v>75394</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14540</v>
+        <v>14468</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9164</v>
+        <v>9362</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25009</v>
+        <v>24621</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>42837</v>
+        <v>43910</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>14931</v>
+        <v>14675</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>20862</v>
+        <v>20354</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>41440</v>
+        <v>39883</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>59173</v>
+        <v>59203</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>34228</v>
+        <v>34968</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>33915</v>
+        <v>34445</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>71147</v>
+        <v>70296</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>109734</v>
+        <v>110653</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>35872</v>
+        <v>34257</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26884</v>
+        <v>26668</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>50201</v>
+        <v>50009</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>73751</v>
+        <v>77797</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>34747</v>
+        <v>34965</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>44202</v>
+        <v>44401</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>69816</v>
+        <v>67873</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>91817</v>
+        <v>90344</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>62979</v>
+        <v>64298</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>62075</v>
+        <v>61938</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>109660</v>
+        <v>108969</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>154056</v>
+        <v>157493</v>
       </c>
     </row>
     <row r="20">
